--- a/Bus_DB.xlsx
+++ b/Bus_DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
   <si>
     <t>Гос. рег. №</t>
   </si>
@@ -66,9 +66,6 @@
     <t>A132BC39</t>
   </si>
   <si>
-    <t>A133BC39</t>
-  </si>
-  <si>
     <t>A134BC39</t>
   </si>
   <si>
@@ -205,13 +202,175 @@
   </si>
   <si>
     <t>Евгеньевич</t>
+  </si>
+  <si>
+    <t>Водители</t>
+  </si>
+  <si>
+    <t>Савельева</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>Павлова</t>
+  </si>
+  <si>
+    <t>Вера</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>Орехова</t>
+  </si>
+  <si>
+    <t>Матвеевна</t>
+  </si>
+  <si>
+    <t>Черных</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>Савельевна</t>
+  </si>
+  <si>
+    <t>Рыбакова</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>Романовна</t>
+  </si>
+  <si>
+    <t>Морозова</t>
+  </si>
+  <si>
+    <t>Ильинична</t>
+  </si>
+  <si>
+    <t>Элина</t>
+  </si>
+  <si>
+    <t>Евгеньевна</t>
+  </si>
+  <si>
+    <t>Третьякова</t>
+  </si>
+  <si>
+    <t>Вячеславовна</t>
+  </si>
+  <si>
+    <t>Яковлева</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Владиславовна</t>
+  </si>
+  <si>
+    <t>Ермакова</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Степановна</t>
+  </si>
+  <si>
+    <t>Кондукторы</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Валентина</t>
+  </si>
+  <si>
+    <t>Любовь</t>
+  </si>
+  <si>
+    <t>Алевтина</t>
+  </si>
+  <si>
+    <t>ID маршрута</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>+7 (984) 988-56-25</t>
+  </si>
+  <si>
+    <t>+7 (974) 667-54-71</t>
+  </si>
+  <si>
+    <t>+7 (911) 670-79-96</t>
+  </si>
+  <si>
+    <t>+7 (984) 288-47-70</t>
+  </si>
+  <si>
+    <t>+7 (953) 242-98-76</t>
+  </si>
+  <si>
+    <t>+7 (949) 991-29-88</t>
+  </si>
+  <si>
+    <t>+7 (953) 211-71-46</t>
+  </si>
+  <si>
+    <t>+7 (962) 812-18-25</t>
+  </si>
+  <si>
+    <t>+7 (989) 867-12-85</t>
+  </si>
+  <si>
+    <t>+7 (968) 940-36-27</t>
+  </si>
+  <si>
+    <t>+7 (938) 345-30-86</t>
+  </si>
+  <si>
+    <t>+7 (915) 163-71-30</t>
+  </si>
+  <si>
+    <t>+7 (970) 452-59-66</t>
+  </si>
+  <si>
+    <t>+7 (959) 158-48-64</t>
+  </si>
+  <si>
+    <t>+7 (995) 940-45-16</t>
+  </si>
+  <si>
+    <t>+7 (947) 338-49-35</t>
+  </si>
+  <si>
+    <t>+7 (951) 431-60-73</t>
+  </si>
+  <si>
+    <t>+7 (925) 135-79-52</t>
+  </si>
+  <si>
+    <t>+7 (933) 340-86-23</t>
+  </si>
+  <si>
+    <t>+7 (951) 955-13-49</t>
+  </si>
+  <si>
+    <t>Гос.номер автобуса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,13 +380,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF242F33"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +420,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -431,7 +629,48 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -439,8 +678,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -448,7 +691,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -462,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -488,6 +733,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -497,46 +748,115 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -840,50 +1160,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="10.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="12.36328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="18"/>
-    <col min="14" max="14" width="11.08984375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="18"/>
-    <col min="16" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="11.453125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="12.36328125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="10"/>
+    <col min="17" max="17" width="11.08984375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="41"/>
+      <c r="J1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="30"/>
+    </row>
+    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -899,40 +1227,47 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="J2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="K2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="M2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="O2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="P2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="Q2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="R2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6">
         <v>5292</v>
@@ -943,166 +1278,251 @@
       <c r="E3" s="6">
         <v>305678</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="38">
+        <v>3</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="J3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="18">
+        <v>29353</v>
+      </c>
+      <c r="O3" s="17">
+        <v>15</v>
+      </c>
+      <c r="P3" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>5</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6">
         <v>5292</v>
       </c>
       <c r="D4" s="6">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6">
-        <v>124543</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>98432</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="38">
+        <v>3</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="J4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="18">
+        <v>32894</v>
+      </c>
+      <c r="O4" s="17">
+        <v>10</v>
+      </c>
+      <c r="P4" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6">
-        <v>5292</v>
+        <v>6213</v>
       </c>
       <c r="D5" s="6">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6">
-        <v>98432</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>532345</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="J5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="18">
+        <v>34788</v>
+      </c>
+      <c r="O5" s="17">
+        <v>8</v>
+      </c>
+      <c r="P5" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6">
         <v>6213</v>
       </c>
       <c r="D6" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6">
-        <v>532345</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>454322</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="38">
+        <v>2</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="J6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="18">
+        <v>27427</v>
+      </c>
+      <c r="O6" s="17">
+        <v>27</v>
+      </c>
+      <c r="P6" s="17">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>12</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
-        <v>6213</v>
+        <v>203</v>
       </c>
       <c r="D7" s="6">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6">
+        <v>231244</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="J7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6">
-        <v>454322</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="18">
+        <v>31889</v>
+      </c>
+      <c r="O7" s="17">
+        <v>19</v>
+      </c>
+      <c r="P7" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>4</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>203</v>
@@ -1111,32 +1531,49 @@
         <v>28</v>
       </c>
       <c r="E8" s="6">
-        <v>231244</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>222134</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="J8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="18">
+        <v>35319</v>
+      </c>
+      <c r="O8" s="17">
+        <v>8</v>
+      </c>
+      <c r="P8" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>8</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6">
         <v>203</v>
@@ -1145,32 +1582,49 @@
         <v>28</v>
       </c>
       <c r="E9" s="6">
-        <v>222134</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>344233</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="38">
+        <v>3</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="J9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="18">
+        <v>31820</v>
+      </c>
+      <c r="O9" s="17">
+        <v>16</v>
+      </c>
+      <c r="P9" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>16</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6">
         <v>203</v>
@@ -1179,66 +1633,100 @@
         <v>28</v>
       </c>
       <c r="E10" s="6">
-        <v>344233</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>243323</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G10" s="38">
+        <v>2</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="J10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="18">
+        <v>33510</v>
+      </c>
+      <c r="O10" s="17">
+        <v>12</v>
+      </c>
+      <c r="P10" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>4</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3299</v>
+      </c>
+      <c r="D11" s="6">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
+        <v>442345</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="38">
+        <v>3</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="J11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="18">
+        <v>31352</v>
+      </c>
+      <c r="O11" s="17">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
-        <v>203</v>
-      </c>
-      <c r="D11" s="6">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6">
-        <v>243323</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P11" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>6</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>3299</v>
@@ -1247,90 +1735,366 @@
         <v>14</v>
       </c>
       <c r="E12" s="6">
-        <v>442345</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>345322</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="38">
+        <v>1</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="J12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="22">
+        <v>30673</v>
+      </c>
+      <c r="O12" s="21">
+        <v>21</v>
+      </c>
+      <c r="P12" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>2</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4292</v>
+      </c>
+      <c r="D13" s="6">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>76433</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6">
-        <v>3299</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4292</v>
+      </c>
+      <c r="D14" s="8">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8">
+        <v>76433</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="33">
+        <v>35342</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="34">
+        <v>31473</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="34">
+        <v>27762</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="34">
+        <v>27600</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="34">
+        <v>32117</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="34">
+        <v>27518</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="34">
+        <v>30549</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="34">
+        <v>35455</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="34">
+        <v>28936</v>
+      </c>
+      <c r="F28" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6">
-        <v>232435</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3299</v>
-      </c>
-      <c r="D14" s="6">
-        <v>14</v>
-      </c>
-      <c r="E14" s="6">
-        <v>345322</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4292</v>
-      </c>
-      <c r="D15" s="8">
-        <v>23</v>
-      </c>
-      <c r="E15" s="8">
-        <v>76433</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="37">
+        <v>31489</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="J29" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:O1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bus_DB.xlsx
+++ b/Bus_DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
   <si>
     <t>Гос. рег. №</t>
   </si>
@@ -364,18 +364,50 @@
   </si>
   <si>
     <t>Гос.номер автобуса</t>
+  </si>
+  <si>
+    <t>Маршруты</t>
+  </si>
+  <si>
+    <t>Номер маршрута</t>
+  </si>
+  <si>
+    <t>Маршрут</t>
+  </si>
+  <si>
+    <t>г. Калининград — пос. ЯРОСЛАВСКОЕ</t>
+  </si>
+  <si>
+    <t>г. Калининград — г. СВЕТЛЫЙ</t>
+  </si>
+  <si>
+    <t>г. Калининград — пос. ЛОГВИНО</t>
+  </si>
+  <si>
+    <t>г. Калининград - г. БАЛТИЙСК</t>
+  </si>
+  <si>
+    <t>г. Калининград — пос. ЮЖНЫЙ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,7 +433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +476,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -703,11 +747,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -739,6 +813,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -748,116 +933,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,58 +1264,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.453125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="12.36328125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="9.7265625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="10"/>
-    <col min="17" max="17" width="11.08984375" style="10" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="9.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.7265625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="10"/>
+    <col min="16" max="16" width="11.08984375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="41"/>
-      <c r="J1" s="28" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="30"/>
-    </row>
-    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,36 +1337,36 @@
       <c r="G2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="J2" s="26" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="L2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="M2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="N2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="O2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="P2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="Q2" s="41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1281,39 +1385,39 @@
       <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="38">
-        <v>3</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="32">
+        <v>107</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="18">
+      <c r="M3" s="15">
         <v>29353</v>
       </c>
-      <c r="O3" s="17">
+      <c r="N3" s="14">
         <v>15</v>
       </c>
-      <c r="P3" s="17">
+      <c r="O3" s="14">
         <v>5</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="P3" s="14">
         <v>5</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="Q3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1332,39 +1436,39 @@
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="38">
-        <v>3</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="32">
+        <v>107</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="18">
+      <c r="M4" s="15">
         <v>32894</v>
       </c>
-      <c r="O4" s="17">
+      <c r="N4" s="14">
         <v>10</v>
       </c>
-      <c r="P4" s="17">
+      <c r="O4" s="14">
         <v>8</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="P4" s="14">
         <v>1</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="Q4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1383,39 +1487,39 @@
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="38">
-        <v>1</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="32">
+        <v>107</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="K5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="L5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="18">
+      <c r="M5" s="15">
         <v>34788</v>
       </c>
-      <c r="O5" s="17">
+      <c r="N5" s="14">
         <v>8</v>
       </c>
-      <c r="P5" s="17">
+      <c r="O5" s="14">
         <v>4</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="P5" s="14">
         <v>0</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="Q5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1434,39 +1538,39 @@
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="38">
-        <v>2</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="32">
+        <v>107</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="18">
+      <c r="M6" s="15">
         <v>27427</v>
       </c>
-      <c r="O6" s="17">
+      <c r="N6" s="14">
         <v>27</v>
       </c>
-      <c r="P6" s="17">
+      <c r="O6" s="14">
         <v>11</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="P6" s="14">
         <v>12</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="Q6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1485,39 +1589,39 @@
       <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="38">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="J7" s="16" t="s">
+      <c r="G7" s="32">
+        <v>105</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="18">
+      <c r="M7" s="15">
         <v>31889</v>
       </c>
-      <c r="O7" s="17">
+      <c r="N7" s="14">
         <v>19</v>
       </c>
-      <c r="P7" s="17">
+      <c r="O7" s="14">
         <v>4</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="P7" s="14">
         <v>4</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="Q7" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1536,39 +1640,39 @@
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="38">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="J8" s="16" t="s">
+      <c r="G8" s="32">
+        <v>105</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="K8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="L8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="18">
+      <c r="M8" s="15">
         <v>35319</v>
       </c>
-      <c r="O8" s="17">
+      <c r="N8" s="14">
         <v>8</v>
       </c>
-      <c r="P8" s="17">
+      <c r="O8" s="14">
         <v>2</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="P8" s="14">
         <v>8</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="Q8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1587,39 +1691,39 @@
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="32">
+        <v>105</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="15">
+        <v>31820</v>
+      </c>
+      <c r="N9" s="14">
+        <v>16</v>
+      </c>
+      <c r="O9" s="14">
         <v>3</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="J9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="18">
-        <v>31820</v>
-      </c>
-      <c r="O9" s="17">
+      <c r="P9" s="14">
         <v>16</v>
       </c>
-      <c r="P9" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>16</v>
-      </c>
-      <c r="R9" s="19" t="s">
+      <c r="Q9" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1638,39 +1742,39 @@
       <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="38">
-        <v>2</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="J10" s="16" t="s">
+      <c r="G10" s="32">
+        <v>104</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="K10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="18">
+      <c r="M10" s="15">
         <v>33510</v>
       </c>
-      <c r="O10" s="17">
+      <c r="N10" s="14">
         <v>12</v>
       </c>
-      <c r="P10" s="17">
+      <c r="O10" s="14">
         <v>7</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="P10" s="14">
         <v>4</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="Q10" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1689,39 +1793,39 @@
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="38">
-        <v>3</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="J11" s="16" t="s">
+      <c r="G11" s="32">
+        <v>103</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="K11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="N11" s="18">
+      <c r="M11" s="15">
         <v>31352</v>
       </c>
-      <c r="O11" s="17">
+      <c r="N11" s="14">
         <v>19</v>
       </c>
-      <c r="P11" s="17">
+      <c r="O11" s="14">
         <v>6</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="P11" s="14">
         <v>6</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="Q11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1740,39 +1844,39 @@
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="38">
-        <v>1</v>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="J12" s="20" t="s">
+      <c r="G12" s="32">
+        <v>106</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="K12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="L12" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="N12" s="22">
+      <c r="M12" s="19">
         <v>30673</v>
       </c>
-      <c r="O12" s="21">
+      <c r="N12" s="18">
         <v>21</v>
       </c>
-      <c r="P12" s="21">
+      <c r="O12" s="18">
         <v>5</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="P12" s="18">
         <v>2</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="Q12" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1792,12 +1896,12 @@
         <v>21</v>
       </c>
       <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1815,16 +1919,16 @@
       <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="15">
-        <v>2</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="12">
+        <v>109</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="42" t="s">
         <v>88</v>
       </c>
@@ -1833,268 +1937,321 @@
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45" t="s">
+      <c r="G18" s="33"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
+      <c r="G19" s="34"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="27">
         <v>35342</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
+      <c r="G20" s="34"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="28">
         <v>31473</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="28">
         <v>27762</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="28">
         <v>27600</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="28">
         <v>32117</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="28">
         <v>27518</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:10" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="28">
         <v>30549</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="28">
         <v>35455</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="28">
         <v>28936</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="35" t="s">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="31">
         <v>31489</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="J29" s="25"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="60"/>
+    </row>
+    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="53">
+        <v>104</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="55">
+        <v>105</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="55">
+        <v>106</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="55">
+        <v>107</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="57">
+        <v>109</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
